--- a/data/financial_statements/socf/JNJ.xlsx
+++ b/data/financial_statements/socf/JNJ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1964 +581,1967 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-14421000000</v>
+      </c>
+      <c r="C2">
         <v>4458000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4814000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5149000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4736000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3667000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6278000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6197000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1738000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3554000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3626000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5796000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4010000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1753000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5607000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3749000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3042000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3934000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3954000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4367000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-10713000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3764000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3827000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4422000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3814000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4272000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3997000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4457000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3215000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3358000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4516000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4320000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2521000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4749000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4326000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4727000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3519000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2982000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3833000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3497000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>1685000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1744000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1769000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1843000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1814000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1839000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1894000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1940000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1818000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1726000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1747000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1816000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1727000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1705000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1761000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1735000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1731000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1717000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1746000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1869000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1711000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1150000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>912000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1055000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>908000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>900000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>891000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1033000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>929000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>889000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>895000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>991000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>939000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>952000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1013000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1102000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>976000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>990000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1036000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>182000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-965000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-206000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>709000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-682000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>390000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-989000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-759000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>446000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-194000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-655000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-142000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-1203000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>-1949000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>737000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-1655000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1779000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-433000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>312000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2723000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>-534000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>428000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>239000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-573000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>234000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-84000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>680000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-1236000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>268000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-976000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>711000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>392000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-1981000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>206000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>730000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>158000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>44000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-500000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>736000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-205000000</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>-959000000</v>
+        <v>-216000000</v>
       </c>
       <c r="D5">
-        <v>-427000000</v>
+        <v>-968000000</v>
       </c>
       <c r="E5">
-        <v>-584000000</v>
+        <v>-421000000</v>
       </c>
       <c r="F5">
+        <v>-572000000</v>
+      </c>
+      <c r="G5">
+        <v>-260000000</v>
+      </c>
+      <c r="H5">
+        <v>-1000000</v>
+      </c>
+      <c r="I5">
+        <v>-1617000000</v>
+      </c>
+      <c r="J5">
+        <v>1203000000</v>
+      </c>
+      <c r="K5">
+        <v>37000000</v>
+      </c>
+      <c r="L5">
+        <v>387000000</v>
+      </c>
+      <c r="M5">
+        <v>-790000000</v>
+      </c>
+      <c r="N5">
+        <v>371000000</v>
+      </c>
+      <c r="O5">
+        <v>-345000000</v>
+      </c>
+      <c r="P5">
+        <v>-489000000</v>
+      </c>
+      <c r="Q5">
+        <v>154000000</v>
+      </c>
+      <c r="R5">
+        <v>-173000000</v>
+      </c>
+      <c r="S5">
+        <v>-38000000</v>
+      </c>
+      <c r="T5">
+        <v>-506000000</v>
+      </c>
+      <c r="U5">
+        <v>-499000000</v>
+      </c>
+      <c r="V5">
+        <v>-375000000</v>
+      </c>
+      <c r="W5">
+        <v>211000000</v>
+      </c>
+      <c r="X5">
+        <v>-343000000</v>
+      </c>
+      <c r="Y5">
+        <v>-109000000</v>
+      </c>
+      <c r="Z5">
+        <v>-330000000</v>
+      </c>
+      <c r="AA5">
+        <v>356000000</v>
+      </c>
+      <c r="AB5">
+        <v>-712000000</v>
+      </c>
+      <c r="AC5">
+        <v>-390000000</v>
+      </c>
+      <c r="AD5">
+        <v>493000000</v>
+      </c>
+      <c r="AE5">
+        <v>273000000</v>
+      </c>
+      <c r="AF5">
+        <v>-395000000</v>
+      </c>
+      <c r="AG5">
+        <v>-786000000</v>
+      </c>
+      <c r="AH5">
+        <v>178000000</v>
+      </c>
+      <c r="AI5">
+        <v>168000000</v>
+      </c>
+      <c r="AJ5">
+        <v>-170000000</v>
+      </c>
+      <c r="AK5">
+        <v>-451000000</v>
+      </c>
+      <c r="AL5">
+        <v>240000000</v>
+      </c>
+      <c r="AM5">
+        <v>-327000000</v>
+      </c>
+      <c r="AN5">
+        <v>-231000000</v>
+      </c>
+      <c r="AO5">
+        <v>-445000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>-620000000</v>
+      </c>
+      <c r="D6">
+        <v>-657000000</v>
+      </c>
+      <c r="E6">
+        <v>-600000000</v>
+      </c>
+      <c r="F6">
+        <v>-70000000</v>
+      </c>
+      <c r="G6">
+        <v>-360000000</v>
+      </c>
+      <c r="H6">
+        <v>-123000000</v>
+      </c>
+      <c r="I6">
+        <v>-695000000</v>
+      </c>
+      <c r="J6">
+        <v>519000000</v>
+      </c>
+      <c r="K6">
+        <v>-147000000</v>
+      </c>
+      <c r="L6">
+        <v>-478000000</v>
+      </c>
+      <c r="M6">
+        <v>-159000000</v>
+      </c>
+      <c r="N6">
+        <v>147000000</v>
+      </c>
+      <c r="O6">
+        <v>-1000000</v>
+      </c>
+      <c r="P6">
+        <v>-54000000</v>
+      </c>
+      <c r="Q6">
+        <v>-369000000</v>
+      </c>
+      <c r="R6">
+        <v>133000000</v>
+      </c>
+      <c r="S6">
+        <v>-286000000</v>
+      </c>
+      <c r="T6">
+        <v>-169000000</v>
+      </c>
+      <c r="U6">
+        <v>-322000000</v>
+      </c>
+      <c r="V6">
+        <v>774000000</v>
+      </c>
+      <c r="W6">
+        <v>228000000</v>
+      </c>
+      <c r="X6">
+        <v>-53000000</v>
+      </c>
+      <c r="Y6">
+        <v>-368000000</v>
+      </c>
+      <c r="Z6">
+        <v>159000000</v>
+      </c>
+      <c r="AA6">
+        <v>35000000</v>
+      </c>
+      <c r="AB6">
+        <v>-253000000</v>
+      </c>
+      <c r="AC6">
+        <v>-190000000</v>
+      </c>
+      <c r="AD6">
+        <v>270000000</v>
+      </c>
+      <c r="AE6">
+        <v>-182000000</v>
+      </c>
+      <c r="AF6">
+        <v>-261000000</v>
+      </c>
+      <c r="AG6">
+        <v>-276000000</v>
+      </c>
+      <c r="AH6">
+        <v>-22000000</v>
+      </c>
+      <c r="AI6">
+        <v>-493000000</v>
+      </c>
+      <c r="AJ6">
+        <v>-93000000</v>
+      </c>
+      <c r="AK6">
+        <v>-512000000</v>
+      </c>
+      <c r="AL6">
+        <v>177000000</v>
+      </c>
+      <c r="AM6">
         <v>-252000000</v>
       </c>
-      <c r="G5">
-        <v>-1000000</v>
-      </c>
-      <c r="H5">
-        <v>-1617000000</v>
-      </c>
-      <c r="I5">
-        <v>1203000000</v>
-      </c>
-      <c r="J5">
-        <v>37000000</v>
-      </c>
-      <c r="K5">
-        <v>387000000</v>
-      </c>
-      <c r="L5">
-        <v>-790000000</v>
-      </c>
-      <c r="M5">
-        <v>371000000</v>
-      </c>
-      <c r="N5">
-        <v>-345000000</v>
-      </c>
-      <c r="O5">
-        <v>-489000000</v>
-      </c>
-      <c r="P5">
-        <v>154000000</v>
-      </c>
-      <c r="Q5">
+      <c r="AN6">
+        <v>-259000000</v>
+      </c>
+      <c r="AO6">
+        <v>-288000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>1311000000</v>
+      </c>
+      <c r="D7">
+        <v>1647000000</v>
+      </c>
+      <c r="E7">
+        <v>-2817000000</v>
+      </c>
+      <c r="F7">
+        <v>2255000000</v>
+      </c>
+      <c r="G7">
+        <v>4232000000</v>
+      </c>
+      <c r="H7">
+        <v>-1714000000</v>
+      </c>
+      <c r="I7">
+        <v>-2336000000</v>
+      </c>
+      <c r="J7">
+        <v>5260000000</v>
+      </c>
+      <c r="K7">
+        <v>2200000000</v>
+      </c>
+      <c r="L7">
+        <v>204000000</v>
+      </c>
+      <c r="M7">
+        <v>-2523000000</v>
+      </c>
+      <c r="N7">
+        <v>1787000000</v>
+      </c>
+      <c r="O7">
+        <v>2717000000</v>
+      </c>
+      <c r="P7">
+        <v>1389000000</v>
+      </c>
+      <c r="Q7">
+        <v>-1833000000</v>
+      </c>
+      <c r="R7">
+        <v>3220000000</v>
+      </c>
+      <c r="S7">
+        <v>780000000</v>
+      </c>
+      <c r="T7">
+        <v>1637000000</v>
+      </c>
+      <c r="U7">
+        <v>-1686000000</v>
+      </c>
+      <c r="V7">
+        <v>2386000000</v>
+      </c>
+      <c r="W7">
+        <v>1540000000</v>
+      </c>
+      <c r="X7">
+        <v>829000000</v>
+      </c>
+      <c r="Y7">
+        <v>-2030000000</v>
+      </c>
+      <c r="Z7">
+        <v>1876000000</v>
+      </c>
+      <c r="AA7">
         <v>-173000000</v>
       </c>
-      <c r="R5">
-        <v>-38000000</v>
-      </c>
-      <c r="S5">
-        <v>-506000000</v>
-      </c>
-      <c r="T5">
-        <v>-499000000</v>
-      </c>
-      <c r="U5">
-        <v>-375000000</v>
-      </c>
-      <c r="V5">
-        <v>211000000</v>
-      </c>
-      <c r="W5">
-        <v>-343000000</v>
-      </c>
-      <c r="X5">
-        <v>-109000000</v>
-      </c>
-      <c r="Y5">
-        <v>-330000000</v>
-      </c>
-      <c r="Z5">
-        <v>356000000</v>
-      </c>
-      <c r="AA5">
-        <v>-712000000</v>
-      </c>
-      <c r="AB5">
-        <v>-390000000</v>
-      </c>
-      <c r="AC5">
-        <v>493000000</v>
-      </c>
-      <c r="AD5">
-        <v>273000000</v>
-      </c>
-      <c r="AE5">
-        <v>-395000000</v>
-      </c>
-      <c r="AF5">
-        <v>-786000000</v>
-      </c>
-      <c r="AG5">
-        <v>178000000</v>
-      </c>
-      <c r="AH5">
-        <v>168000000</v>
-      </c>
-      <c r="AI5">
-        <v>-170000000</v>
-      </c>
-      <c r="AJ5">
-        <v>-451000000</v>
-      </c>
-      <c r="AK5">
-        <v>240000000</v>
-      </c>
-      <c r="AL5">
-        <v>-327000000</v>
-      </c>
-      <c r="AM5">
-        <v>-231000000</v>
-      </c>
-      <c r="AN5">
-        <v>-445000000</v>
+      <c r="AB7">
+        <v>1025000000</v>
+      </c>
+      <c r="AC7">
+        <v>-2072000000</v>
+      </c>
+      <c r="AD7">
+        <v>1558000000</v>
+      </c>
+      <c r="AE7">
+        <v>660000000</v>
+      </c>
+      <c r="AF7">
+        <v>520000000</v>
+      </c>
+      <c r="AG7">
+        <v>-2451000000</v>
+      </c>
+      <c r="AH7">
+        <v>2021000000</v>
+      </c>
+      <c r="AI7">
+        <v>-232000000</v>
+      </c>
+      <c r="AJ7">
+        <v>409000000</v>
+      </c>
+      <c r="AK7">
+        <v>-1004000000</v>
+      </c>
+      <c r="AL7">
+        <v>1232000000</v>
+      </c>
+      <c r="AM7">
+        <v>1304000000</v>
+      </c>
+      <c r="AN7">
+        <v>744000000</v>
+      </c>
+      <c r="AO7">
+        <v>-1459000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-620000000</v>
-      </c>
-      <c r="C6">
-        <v>-657000000</v>
-      </c>
-      <c r="D6">
-        <v>-600000000</v>
-      </c>
-      <c r="E6">
-        <v>-70000000</v>
-      </c>
-      <c r="F6">
-        <v>-360000000</v>
-      </c>
-      <c r="G6">
-        <v>-123000000</v>
-      </c>
-      <c r="H6">
-        <v>-695000000</v>
-      </c>
-      <c r="I6">
-        <v>519000000</v>
-      </c>
-      <c r="J6">
-        <v>-147000000</v>
-      </c>
-      <c r="K6">
-        <v>-478000000</v>
-      </c>
-      <c r="L6">
-        <v>-159000000</v>
-      </c>
-      <c r="M6">
-        <v>147000000</v>
-      </c>
-      <c r="N6">
-        <v>-1000000</v>
-      </c>
-      <c r="O6">
-        <v>-54000000</v>
-      </c>
-      <c r="P6">
-        <v>-369000000</v>
-      </c>
-      <c r="Q6">
-        <v>133000000</v>
-      </c>
-      <c r="R6">
-        <v>-286000000</v>
-      </c>
-      <c r="S6">
-        <v>-169000000</v>
-      </c>
-      <c r="T6">
-        <v>-322000000</v>
-      </c>
-      <c r="U6">
-        <v>774000000</v>
-      </c>
-      <c r="V6">
-        <v>228000000</v>
-      </c>
-      <c r="W6">
-        <v>-53000000</v>
-      </c>
-      <c r="X6">
-        <v>-368000000</v>
-      </c>
-      <c r="Y6">
-        <v>159000000</v>
-      </c>
-      <c r="Z6">
-        <v>35000000</v>
-      </c>
-      <c r="AA6">
-        <v>-253000000</v>
-      </c>
-      <c r="AB6">
-        <v>-190000000</v>
-      </c>
-      <c r="AC6">
-        <v>270000000</v>
-      </c>
-      <c r="AD6">
-        <v>-182000000</v>
-      </c>
-      <c r="AE6">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>-516000000</v>
+      </c>
+      <c r="D8">
+        <v>-34000000</v>
+      </c>
+      <c r="E8">
+        <v>1105000000</v>
+      </c>
+      <c r="F8">
+        <v>-3169000000</v>
+      </c>
+      <c r="G8">
+        <v>-121000000</v>
+      </c>
+      <c r="H8">
+        <v>-1355000000</v>
+      </c>
+      <c r="I8">
+        <v>1620000000</v>
+      </c>
+      <c r="J8">
+        <v>-1558000000</v>
+      </c>
+      <c r="K8">
+        <v>475000000</v>
+      </c>
+      <c r="L8">
+        <v>-1819000000</v>
+      </c>
+      <c r="M8">
+        <v>-58000000</v>
+      </c>
+      <c r="N8">
+        <v>-1591000000</v>
+      </c>
+      <c r="O8">
+        <v>2879000000</v>
+      </c>
+      <c r="P8">
         <v>-261000000</v>
       </c>
-      <c r="AF6">
-        <v>-276000000</v>
-      </c>
-      <c r="AG6">
-        <v>-22000000</v>
-      </c>
-      <c r="AH6">
-        <v>-493000000</v>
-      </c>
-      <c r="AI6">
-        <v>-93000000</v>
-      </c>
-      <c r="AJ6">
-        <v>-512000000</v>
-      </c>
-      <c r="AK6">
-        <v>177000000</v>
-      </c>
-      <c r="AL6">
+      <c r="Q8">
+        <v>-656000000</v>
+      </c>
+      <c r="R8">
+        <v>-58000000</v>
+      </c>
+      <c r="S8">
+        <v>-1628000000</v>
+      </c>
+      <c r="T8">
+        <v>-121000000</v>
+      </c>
+      <c r="U8">
+        <v>-312000000</v>
+      </c>
+      <c r="V8">
+        <v>9441000000</v>
+      </c>
+      <c r="W8">
+        <v>-654000000</v>
+      </c>
+      <c r="X8">
+        <v>-66000000</v>
+      </c>
+      <c r="Y8">
+        <v>-153000000</v>
+      </c>
+      <c r="Z8">
+        <v>652000000</v>
+      </c>
+      <c r="AA8">
+        <v>-271000000</v>
+      </c>
+      <c r="AB8">
+        <v>-309000000</v>
+      </c>
+      <c r="AC8">
+        <v>-1187000000</v>
+      </c>
+      <c r="AD8">
+        <v>-248000000</v>
+      </c>
+      <c r="AE8">
+        <v>834000000</v>
+      </c>
+      <c r="AF8">
+        <v>1179000000</v>
+      </c>
+      <c r="AG8">
+        <v>459000000</v>
+      </c>
+      <c r="AH8">
+        <v>-1477000000</v>
+      </c>
+      <c r="AI8">
+        <v>1504000000</v>
+      </c>
+      <c r="AJ8">
+        <v>-101000000</v>
+      </c>
+      <c r="AK8">
+        <v>-580000000</v>
+      </c>
+      <c r="AL8">
+        <v>-2289000000</v>
+      </c>
+      <c r="AM8">
+        <v>1220000000</v>
+      </c>
+      <c r="AN8">
+        <v>474000000</v>
+      </c>
+      <c r="AO8">
+        <v>-800000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>6284000000</v>
+      </c>
+      <c r="D9">
+        <v>5581000000</v>
+      </c>
+      <c r="E9">
+        <v>3979000000</v>
+      </c>
+      <c r="F9">
+        <v>5732000000</v>
+      </c>
+      <c r="G9">
+        <v>8290000000</v>
+      </c>
+      <c r="H9">
+        <v>5314000000</v>
+      </c>
+      <c r="I9">
+        <v>4074000000</v>
+      </c>
+      <c r="J9">
+        <v>8343000000</v>
+      </c>
+      <c r="K9">
+        <v>8383000000</v>
+      </c>
+      <c r="L9">
+        <v>3452000000</v>
+      </c>
+      <c r="M9">
+        <v>3358000000</v>
+      </c>
+      <c r="N9">
+        <v>6398000000</v>
+      </c>
+      <c r="O9">
+        <v>7527000000</v>
+      </c>
+      <c r="P9">
+        <v>5948000000</v>
+      </c>
+      <c r="Q9">
+        <v>3543000000</v>
+      </c>
+      <c r="R9">
+        <v>6244000000</v>
+      </c>
+      <c r="S9">
+        <v>6272000000</v>
+      </c>
+      <c r="T9">
+        <v>6079000000</v>
+      </c>
+      <c r="U9">
+        <v>3606000000</v>
+      </c>
+      <c r="V9">
+        <v>6105000000</v>
+      </c>
+      <c r="W9">
+        <v>6266000000</v>
+      </c>
+      <c r="X9">
+        <v>5772000000</v>
+      </c>
+      <c r="Y9">
+        <v>2913000000</v>
+      </c>
+      <c r="Z9">
+        <v>6653000000</v>
+      </c>
+      <c r="AA9">
+        <v>5361000000</v>
+      </c>
+      <c r="AB9">
+        <v>4564000000</v>
+      </c>
+      <c r="AC9">
+        <v>2189000000</v>
+      </c>
+      <c r="AD9">
+        <v>5085000000</v>
+      </c>
+      <c r="AE9">
+        <v>6140000000</v>
+      </c>
+      <c r="AF9">
+        <v>5472000000</v>
+      </c>
+      <c r="AG9">
+        <v>2872000000</v>
+      </c>
+      <c r="AH9">
+        <v>4604000000</v>
+      </c>
+      <c r="AI9">
+        <v>4654000000</v>
+      </c>
+      <c r="AJ9">
+        <v>5529000000</v>
+      </c>
+      <c r="AK9">
+        <v>3923000000</v>
+      </c>
+      <c r="AL9">
+        <v>4139000000</v>
+      </c>
+      <c r="AM9">
+        <v>5947000000</v>
+      </c>
+      <c r="AN9">
+        <v>5051000000</v>
+      </c>
+      <c r="AO9">
+        <v>2277000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>-944000000</v>
+      </c>
+      <c r="D10">
+        <v>-797000000</v>
+      </c>
+      <c r="E10">
+        <v>-359000000</v>
+      </c>
+      <c r="F10">
+        <v>-1370000000</v>
+      </c>
+      <c r="G10">
+        <v>-735000000</v>
+      </c>
+      <c r="H10">
+        <v>-762000000</v>
+      </c>
+      <c r="I10">
+        <v>-74000000</v>
+      </c>
+      <c r="J10">
+        <v>-1118000000</v>
+      </c>
+      <c r="K10">
+        <v>-724000000</v>
+      </c>
+      <c r="L10">
+        <v>-592000000</v>
+      </c>
+      <c r="M10">
+        <v>-608000000</v>
+      </c>
+      <c r="N10">
+        <v>-1098000000</v>
+      </c>
+      <c r="O10">
+        <v>-660000000</v>
+      </c>
+      <c r="P10">
+        <v>1928000000</v>
+      </c>
+      <c r="Q10">
+        <v>-403000000</v>
+      </c>
+      <c r="R10">
+        <v>990000000</v>
+      </c>
+      <c r="S10">
+        <v>-794000000</v>
+      </c>
+      <c r="T10">
+        <v>-25000000</v>
+      </c>
+      <c r="U10">
+        <v>-638000000</v>
+      </c>
+      <c r="V10">
+        <v>-134000000</v>
+      </c>
+      <c r="W10">
+        <v>-189000000</v>
+      </c>
+      <c r="X10">
+        <v>-595000000</v>
+      </c>
+      <c r="Y10">
+        <v>-529000000</v>
+      </c>
+      <c r="Z10">
+        <v>-699000000</v>
+      </c>
+      <c r="AA10">
+        <v>-549000000</v>
+      </c>
+      <c r="AB10">
+        <v>-97000000</v>
+      </c>
+      <c r="AC10">
+        <v>-614000000</v>
+      </c>
+      <c r="AD10">
+        <v>478000000</v>
+      </c>
+      <c r="AE10">
+        <v>-362000000</v>
+      </c>
+      <c r="AF10">
+        <v>318000000</v>
+      </c>
+      <c r="AG10">
+        <v>-433000000</v>
+      </c>
+      <c r="AH10">
+        <v>-1346000000</v>
+      </c>
+      <c r="AI10">
+        <v>3157000000</v>
+      </c>
+      <c r="AJ10">
+        <v>-299000000</v>
+      </c>
+      <c r="AK10">
+        <v>-595000000</v>
+      </c>
+      <c r="AL10">
+        <v>-1163000000</v>
+      </c>
+      <c r="AM10">
+        <v>-764000000</v>
+      </c>
+      <c r="AN10">
+        <v>-730000000</v>
+      </c>
+      <c r="AO10">
+        <v>-480000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1000000</v>
+      </c>
+      <c r="D11">
+        <v>-271000000</v>
+      </c>
+      <c r="E11">
         <v>-252000000</v>
       </c>
-      <c r="AM6">
-        <v>-259000000</v>
-      </c>
-      <c r="AN6">
-        <v>-288000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1311000000</v>
-      </c>
-      <c r="C7">
-        <v>1647000000</v>
-      </c>
-      <c r="D7">
-        <v>-2817000000</v>
-      </c>
-      <c r="E7">
-        <v>2255000000</v>
-      </c>
-      <c r="F7">
-        <v>4232000000</v>
-      </c>
-      <c r="G7">
-        <v>-1714000000</v>
-      </c>
-      <c r="H7">
-        <v>-2336000000</v>
-      </c>
-      <c r="I7">
-        <v>5260000000</v>
-      </c>
-      <c r="J7">
-        <v>2200000000</v>
-      </c>
-      <c r="K7">
-        <v>204000000</v>
-      </c>
-      <c r="L7">
-        <v>-2523000000</v>
-      </c>
-      <c r="M7">
-        <v>1787000000</v>
-      </c>
-      <c r="N7">
-        <v>2717000000</v>
-      </c>
-      <c r="O7">
-        <v>1389000000</v>
-      </c>
-      <c r="P7">
-        <v>-1833000000</v>
-      </c>
-      <c r="Q7">
-        <v>3220000000</v>
-      </c>
-      <c r="R7">
-        <v>780000000</v>
-      </c>
-      <c r="S7">
-        <v>1637000000</v>
-      </c>
-      <c r="T7">
-        <v>-1686000000</v>
-      </c>
-      <c r="U7">
-        <v>2386000000</v>
-      </c>
-      <c r="V7">
-        <v>1540000000</v>
-      </c>
-      <c r="W7">
-        <v>829000000</v>
-      </c>
-      <c r="X7">
-        <v>-2030000000</v>
-      </c>
-      <c r="Y7">
-        <v>1876000000</v>
-      </c>
-      <c r="Z7">
-        <v>-173000000</v>
-      </c>
-      <c r="AA7">
-        <v>1025000000</v>
-      </c>
-      <c r="AB7">
-        <v>-2072000000</v>
-      </c>
-      <c r="AC7">
-        <v>1558000000</v>
-      </c>
-      <c r="AD7">
-        <v>660000000</v>
-      </c>
-      <c r="AE7">
-        <v>520000000</v>
-      </c>
-      <c r="AF7">
-        <v>-2451000000</v>
-      </c>
-      <c r="AG7">
-        <v>2021000000</v>
-      </c>
-      <c r="AH7">
-        <v>-232000000</v>
-      </c>
-      <c r="AI7">
-        <v>409000000</v>
-      </c>
-      <c r="AJ7">
-        <v>-1004000000</v>
-      </c>
-      <c r="AK7">
-        <v>1232000000</v>
-      </c>
-      <c r="AL7">
-        <v>1304000000</v>
-      </c>
-      <c r="AM7">
-        <v>744000000</v>
-      </c>
-      <c r="AN7">
-        <v>-1459000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-655000000</v>
-      </c>
-      <c r="C8">
-        <v>-1457000000</v>
-      </c>
-      <c r="D8">
-        <v>179000000</v>
-      </c>
-      <c r="E8">
-        <v>-2684000000</v>
-      </c>
-      <c r="F8">
-        <v>-2000000000</v>
-      </c>
-      <c r="G8">
-        <v>-1355000000</v>
-      </c>
-      <c r="H8">
-        <v>1620000000</v>
-      </c>
-      <c r="I8">
-        <v>-1558000000</v>
-      </c>
-      <c r="J8">
-        <v>475000000</v>
-      </c>
-      <c r="K8">
-        <v>-1819000000</v>
-      </c>
-      <c r="L8">
-        <v>-58000000</v>
-      </c>
-      <c r="M8">
-        <v>-1591000000</v>
-      </c>
-      <c r="N8">
-        <v>2879000000</v>
-      </c>
-      <c r="O8">
-        <v>-261000000</v>
-      </c>
-      <c r="P8">
-        <v>-656000000</v>
-      </c>
-      <c r="Q8">
-        <v>-58000000</v>
-      </c>
-      <c r="R8">
-        <v>-1628000000</v>
-      </c>
-      <c r="S8">
-        <v>-121000000</v>
-      </c>
-      <c r="T8">
-        <v>-312000000</v>
-      </c>
-      <c r="U8">
-        <v>9441000000</v>
-      </c>
-      <c r="V8">
-        <v>-654000000</v>
-      </c>
-      <c r="W8">
-        <v>-66000000</v>
-      </c>
-      <c r="X8">
-        <v>-153000000</v>
-      </c>
-      <c r="Y8">
-        <v>652000000</v>
-      </c>
-      <c r="Z8">
-        <v>-271000000</v>
-      </c>
-      <c r="AA8">
-        <v>-309000000</v>
-      </c>
-      <c r="AB8">
-        <v>-1187000000</v>
-      </c>
-      <c r="AC8">
+      <c r="F11">
+        <v>-60000000</v>
+      </c>
+      <c r="J11">
+        <v>-6374000000</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-10000000</v>
+      </c>
+      <c r="M11">
+        <v>-939000000</v>
+      </c>
+      <c r="N11">
         <v>-248000000</v>
       </c>
-      <c r="AD8">
-        <v>834000000</v>
-      </c>
-      <c r="AE8">
-        <v>1179000000</v>
-      </c>
-      <c r="AF8">
-        <v>459000000</v>
-      </c>
-      <c r="AG8">
-        <v>-1477000000</v>
-      </c>
-      <c r="AH8">
-        <v>1504000000</v>
-      </c>
-      <c r="AI8">
-        <v>-101000000</v>
-      </c>
-      <c r="AJ8">
-        <v>-580000000</v>
-      </c>
-      <c r="AK8">
-        <v>-2289000000</v>
-      </c>
-      <c r="AL8">
-        <v>1220000000</v>
-      </c>
-      <c r="AM8">
-        <v>474000000</v>
-      </c>
-      <c r="AN8">
-        <v>-800000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6284000000</v>
-      </c>
-      <c r="C9">
-        <v>5581000000</v>
-      </c>
-      <c r="D9">
-        <v>3979000000</v>
-      </c>
-      <c r="E9">
-        <v>5732000000</v>
-      </c>
-      <c r="F9">
-        <v>8290000000</v>
-      </c>
-      <c r="G9">
-        <v>5314000000</v>
-      </c>
-      <c r="H9">
-        <v>4074000000</v>
-      </c>
-      <c r="I9">
-        <v>8343000000</v>
-      </c>
-      <c r="J9">
-        <v>8383000000</v>
-      </c>
-      <c r="K9">
-        <v>3452000000</v>
-      </c>
-      <c r="L9">
-        <v>3358000000</v>
-      </c>
-      <c r="M9">
-        <v>6398000000</v>
-      </c>
-      <c r="N9">
-        <v>7527000000</v>
-      </c>
-      <c r="O9">
-        <v>5948000000</v>
-      </c>
-      <c r="P9">
-        <v>3543000000</v>
-      </c>
-      <c r="Q9">
-        <v>6244000000</v>
-      </c>
-      <c r="R9">
-        <v>6272000000</v>
-      </c>
-      <c r="S9">
-        <v>6079000000</v>
-      </c>
-      <c r="T9">
-        <v>3606000000</v>
-      </c>
-      <c r="U9">
-        <v>6105000000</v>
-      </c>
-      <c r="V9">
-        <v>6266000000</v>
-      </c>
-      <c r="W9">
-        <v>5772000000</v>
-      </c>
-      <c r="X9">
-        <v>2913000000</v>
-      </c>
-      <c r="Y9">
-        <v>6653000000</v>
-      </c>
-      <c r="Z9">
-        <v>5361000000</v>
-      </c>
-      <c r="AA9">
-        <v>4564000000</v>
-      </c>
-      <c r="AB9">
-        <v>2189000000</v>
-      </c>
-      <c r="AC9">
-        <v>5085000000</v>
-      </c>
-      <c r="AD9">
-        <v>6140000000</v>
-      </c>
-      <c r="AE9">
-        <v>5472000000</v>
-      </c>
-      <c r="AF9">
-        <v>2872000000</v>
-      </c>
-      <c r="AG9">
-        <v>4604000000</v>
-      </c>
-      <c r="AH9">
-        <v>4654000000</v>
-      </c>
-      <c r="AI9">
-        <v>5529000000</v>
-      </c>
-      <c r="AJ9">
-        <v>3923000000</v>
-      </c>
-      <c r="AK9">
-        <v>4139000000</v>
-      </c>
-      <c r="AL9">
-        <v>5947000000</v>
-      </c>
-      <c r="AM9">
-        <v>5051000000</v>
-      </c>
-      <c r="AN9">
-        <v>2277000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-944000000</v>
-      </c>
-      <c r="C10">
-        <v>-797000000</v>
-      </c>
-      <c r="D10">
-        <v>-359000000</v>
-      </c>
-      <c r="E10">
-        <v>-1370000000</v>
-      </c>
-      <c r="F10">
-        <v>-735000000</v>
-      </c>
-      <c r="G10">
-        <v>-762000000</v>
-      </c>
-      <c r="H10">
-        <v>-74000000</v>
-      </c>
-      <c r="I10">
-        <v>-1118000000</v>
-      </c>
-      <c r="J10">
-        <v>-724000000</v>
-      </c>
-      <c r="K10">
-        <v>-592000000</v>
-      </c>
-      <c r="L10">
-        <v>-608000000</v>
-      </c>
-      <c r="M10">
-        <v>-1098000000</v>
-      </c>
-      <c r="N10">
-        <v>-660000000</v>
-      </c>
-      <c r="O10">
-        <v>1928000000</v>
-      </c>
-      <c r="P10">
-        <v>-403000000</v>
-      </c>
-      <c r="Q10">
-        <v>990000000</v>
-      </c>
-      <c r="R10">
-        <v>-794000000</v>
-      </c>
-      <c r="S10">
-        <v>-25000000</v>
-      </c>
-      <c r="T10">
-        <v>-638000000</v>
-      </c>
-      <c r="U10">
-        <v>-134000000</v>
-      </c>
-      <c r="V10">
-        <v>-189000000</v>
-      </c>
-      <c r="W10">
-        <v>-595000000</v>
-      </c>
-      <c r="X10">
-        <v>-529000000</v>
-      </c>
-      <c r="Y10">
-        <v>-699000000</v>
-      </c>
-      <c r="Z10">
-        <v>-549000000</v>
-      </c>
-      <c r="AA10">
-        <v>-97000000</v>
-      </c>
-      <c r="AB10">
-        <v>-614000000</v>
-      </c>
-      <c r="AC10">
-        <v>478000000</v>
-      </c>
-      <c r="AD10">
-        <v>-362000000</v>
-      </c>
-      <c r="AE10">
-        <v>318000000</v>
-      </c>
-      <c r="AF10">
-        <v>-433000000</v>
-      </c>
-      <c r="AG10">
-        <v>-1346000000</v>
-      </c>
-      <c r="AH10">
-        <v>3157000000</v>
-      </c>
-      <c r="AI10">
-        <v>-299000000</v>
-      </c>
-      <c r="AJ10">
-        <v>-595000000</v>
-      </c>
-      <c r="AK10">
-        <v>-1163000000</v>
-      </c>
-      <c r="AL10">
-        <v>-764000000</v>
-      </c>
-      <c r="AM10">
-        <v>-730000000</v>
-      </c>
-      <c r="AN10">
-        <v>-480000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1000000</v>
-      </c>
-      <c r="C11">
-        <v>-271000000</v>
-      </c>
-      <c r="D11">
-        <v>-252000000</v>
-      </c>
-      <c r="E11">
-        <v>-60000000</v>
-      </c>
-      <c r="I11">
-        <v>-6374000000</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>-10000000</v>
-      </c>
-      <c r="L11">
-        <v>-939000000</v>
-      </c>
-      <c r="M11">
-        <v>-248000000</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
         <v>-216000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-3663000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-1683000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-2000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-675000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-140000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-82000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-505000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-574000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-29220000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-4852000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-459000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-3320000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-725000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-5000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-721000000</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>-233000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-1838000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-291000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-16000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-645000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-6000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-168000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-425000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1699000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-2715000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-3354000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2223000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>950000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-761000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>706000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-3524000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-5614000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-520000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-308000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-840000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-150000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>765000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1656000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-2785000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-1000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-207000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>251000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-380000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>17649000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>4444000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-930000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1496000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2181000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-917000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-1080000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-615000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-3872000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-1112000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>414000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-2078000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-7780000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-1350000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-173000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-120000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>179000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-751000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>671000000</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>1303000000</v>
+        <v>-333000000</v>
       </c>
       <c r="D13">
-        <v>-681000000</v>
+        <v>128000000</v>
       </c>
       <c r="E13">
-        <v>-450000000</v>
+        <v>-308000000</v>
       </c>
       <c r="F13">
-        <v>295000000</v>
+        <v>-576000000</v>
       </c>
       <c r="G13">
+        <v>239000000</v>
+      </c>
+      <c r="H13">
         <v>-607000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>650000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-1117000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-571000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1306000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1486000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>310000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>71000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>97000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-96000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-416000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-15000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-35000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-117000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-37000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-81000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-86000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-37000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-1000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-68000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-24000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-11000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-152000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-53000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-13000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-81000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-226000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-24000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-12000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-4000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-1701000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-2639000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-3634000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-5360000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-2719000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-419000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-185000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-7903000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-4819000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-7522000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-581000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-1344000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-1645000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-1788000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-1417000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2228000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-4269000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-201000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-925000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-505000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-1180000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-12247000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-936000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-2174000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-2372000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1322000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-1537000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-1391000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-1001000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-3554000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-1789000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-2922000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>735000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-8092000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-2026000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-1578000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-1553000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-569000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-1403000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>119000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>9000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>31000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-3000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>654000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-189000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-1452000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-2799000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>7204000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2709000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-19000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1935000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>55000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-1005000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-720000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-817000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>52000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-2464000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-511000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>361000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1918000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>4986000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>654000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>775000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3102000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3344000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>226000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>492000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>278000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>383000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3704000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-1692000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-160000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-1002000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3154000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-36000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-866000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-224000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-2078000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-474000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-1256000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-768000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-126000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-324000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-1202000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-129000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-269000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-330000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1379000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-52000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-1511000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-2117000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-2112000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-3339000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-153000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-49000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-1378000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-607000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-176000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-1573000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-2940000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-1948000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-2020000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-1943000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-1879000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-1441000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-256000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-974000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-1614000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-2606000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-2057000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-730000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-188000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-110000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-2621000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>719000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1123000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-2970000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-2971000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-2787000000</v>
-      </c>
-      <c r="E17">
-        <v>-2791000000</v>
       </c>
       <c r="F17">
         <v>-2791000000</v>
@@ -2433,590 +2550,590 @@
         <v>-2791000000</v>
       </c>
       <c r="H17">
+        <v>-2791000000</v>
+      </c>
+      <c r="I17">
         <v>-2659000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-2658000000</v>
-      </c>
-      <c r="J17">
-        <v>-2659000000</v>
       </c>
       <c r="K17">
         <v>-2659000000</v>
       </c>
       <c r="L17">
+        <v>-2659000000</v>
+      </c>
+      <c r="M17">
         <v>-2505000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-2500000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-2499000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-2522000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-2396000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-2411000000</v>
-      </c>
-      <c r="R17">
-        <v>-2415000000</v>
       </c>
       <c r="S17">
         <v>-2415000000</v>
       </c>
       <c r="T17">
+        <v>-2415000000</v>
+      </c>
+      <c r="U17">
         <v>-2253000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-2256000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-2254000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-2262000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-2171000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-2170000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-2185000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-2197000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-2069000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-2072000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-2076000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-2079000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-1946000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-1956000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-1967000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-1978000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-1867000000</v>
-      </c>
-      <c r="AK17">
-        <v>-1862000000</v>
       </c>
       <c r="AL17">
         <v>-1862000000</v>
       </c>
       <c r="AM17">
+        <v>-1862000000</v>
+      </c>
+      <c r="AN17">
         <v>-1856000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-1706000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1314000000</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>1624000000</v>
+        <v>1004000000</v>
       </c>
       <c r="D18">
-        <v>353000000</v>
+        <v>1175000000</v>
       </c>
       <c r="E18">
-        <v>362000000</v>
+        <v>-373000000</v>
       </c>
       <c r="F18">
-        <v>1245000000</v>
+        <v>126000000</v>
       </c>
       <c r="G18">
+        <v>56000000</v>
+      </c>
+      <c r="H18">
         <v>25000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>188000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-58000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-80000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-77000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-412000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>415000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>62000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>101000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-3000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>81000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-92000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-262000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>125000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-163000000</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>-25000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-15000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-7000000</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>-50000000</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>26000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>30000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-3925000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-2261000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-4385000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-3436000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2207000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-3279000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-5125000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-5644000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>4196000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-357000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-4315000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-4072000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-3893000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-4534000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-5516000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-6389000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-3477000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-2674000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-5970000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-3537000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-2069000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-1917000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-150000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-3464000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-3445000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-1038000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-604000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-3294000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-1840000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-2775000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-3227000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-858000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-5716000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-2868000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-3057000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1182000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-4519000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-1977000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-777000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-286000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-161000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>16000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-53000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-92000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>45000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-78000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>224000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>31000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>71000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-237000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>74000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-116000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>16000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>17000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-32000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-39000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-274000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>104000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>40000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>106000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>81000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>110000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-248000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>21000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-69000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>81000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-307000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-299000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-492000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-391000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-119000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-91000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-55000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-45000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-20000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>22000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-53000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-153000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>372000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>520000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-4024000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-3117000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3272000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1661000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-1314000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-4980000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>7791000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-4356000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-1775000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1056000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1873000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-358000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-3373000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2051000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-1513000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2930000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-3185000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2103000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3123000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-8311000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1937000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>767000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-435000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4779000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>129000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>93000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>3000000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-1349000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-2535000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>705000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-418000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-5486000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-1205000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>3723000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-103000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2452000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-56000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>14487000000</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3025,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>13985000000</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3037,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>17305000000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3049,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>18107000000</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3061,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>17824000000</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3073,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>18972000000</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3085,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>13732000000</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3097,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>14523000000</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3109,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>20927000000</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3121,268 +3238,271 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>14911000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>372000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>520000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>10463000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-3117000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3272000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1661000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>12671000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-4980000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7791000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-4356000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>15530000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1056000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1873000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-358000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>14734000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2051000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-1513000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2930000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>14639000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2103000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3123000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-8311000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>20909000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>767000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-435000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4779000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>13861000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>93000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>3000000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-1349000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>11988000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>705000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-418000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-5486000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>19722000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3723000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-103000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2452000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>14855000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>281000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>366000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>278000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>215000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>259000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>354000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>307000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>160000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>256000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>326000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>263000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>160000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>245000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>314000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>258000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>156000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>242000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>312000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>268000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>204000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>236000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>293000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>229000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>174000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>225000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>274000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>205000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>197000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>203000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>270000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>204000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>146000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>206000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>242000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>198000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>144000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>161000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>229000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>194000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>8728000000</v>
+      </c>
+      <c r="C25">
         <v>-2970000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-2971000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-2787000000</v>
-      </c>
-      <c r="E25">
-        <v>-2791000000</v>
       </c>
       <c r="F25">
         <v>-2791000000</v>
@@ -3391,712 +3511,718 @@
         <v>-2791000000</v>
       </c>
       <c r="H25">
+        <v>-2791000000</v>
+      </c>
+      <c r="I25">
         <v>-2659000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-2658000000</v>
-      </c>
-      <c r="J25">
-        <v>-2659000000</v>
       </c>
       <c r="K25">
         <v>-2659000000</v>
       </c>
       <c r="L25">
+        <v>-2659000000</v>
+      </c>
+      <c r="M25">
         <v>-2505000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-2500000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-2499000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-2522000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-2396000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-2411000000</v>
-      </c>
-      <c r="R25">
-        <v>-2415000000</v>
       </c>
       <c r="S25">
         <v>-2415000000</v>
       </c>
       <c r="T25">
+        <v>-2415000000</v>
+      </c>
+      <c r="U25">
         <v>-2253000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-2256000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-2254000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-2262000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-2171000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-2170000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-2185000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-2197000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-2069000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-2072000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-2076000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-2079000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-1946000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-1956000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-1967000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-1978000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-1867000000</v>
-      </c>
-      <c r="AK25">
-        <v>-1862000000</v>
       </c>
       <c r="AL25">
         <v>-1862000000</v>
       </c>
       <c r="AM25">
+        <v>-1862000000</v>
+      </c>
+      <c r="AN25">
         <v>-1856000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-1706000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-0.0044</v>
+      </c>
+      <c r="C26">
         <v>-0.0048</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.0001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.0059</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.0048</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0069</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.0189</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.0208</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.0243</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.0178</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.0304</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.0277</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.0225</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.0263</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.0336</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.0333</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.0231</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.027</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.0345</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.0438</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.033</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0296</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0407</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-0.0366</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-0.0614</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-0.0523</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-0.0542</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-0.0658</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-0.0896</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-0.08989999999999999</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-0.0735</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-0.0585</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-0.061</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-0.06619999999999999</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-0.062</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-0.0578</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-0.0617</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-0.0634</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-0.0636</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-0.0451</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>-41000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-12000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-2733000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-1556000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3491000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-3193000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-3028000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5424000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2565000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1706000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-3530000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>714000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5250000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>585000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-2704000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3122000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-1172000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>841000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-2819000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>12226000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1325000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>367000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-2660000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2357000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-53000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-249000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-3839000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>2073000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1585000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1043000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-3054000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>700000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>947000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>45000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-2547000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-640000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>1945000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>728000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-2992000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-425000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-1699000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-2715000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-3354000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-2223000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>950000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-761000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>706000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-3524000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-5614000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-520000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-308000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-840000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-150000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>765000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1656000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-2785000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-1000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-207000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>251000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-380000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>17649000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>4444000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-930000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1496000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2181000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-917000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-1080000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-615000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-3872000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-1112000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>414000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-2078000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-7780000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-1350000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-173000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-120000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>179000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-751000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-2078000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-474000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-1256000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-768000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-126000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-324000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1202000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-129000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-269000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-330000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-1379000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-52000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-1511000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-2117000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-2112000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-3339000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-153000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-49000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-1378000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-607000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-176000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-1573000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-2940000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-1948000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-2020000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-1943000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-1879000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-1441000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-256000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-974000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-1614000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-2606000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-2057000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-730000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-188000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-110000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-2621000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>719000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1123000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>-2078000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-474000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1256000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-768000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-126000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-324000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1202000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-129000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-269000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-330000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1379000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-52000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-1511000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-2117000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-2112000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-3339000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-153000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-49000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-1378000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-607000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-176000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-1573000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-2940000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-1948000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-2020000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-1943000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-1879000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-1441000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-256000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-974000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-1614000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-2606000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-2057000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-730000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-188000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-110000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-2621000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>719000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1123000000</v>
       </c>
     </row>
